--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Honduras Liga Nacional</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,17 +653,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>20:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Olancho</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Platense FC</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -682,7 +682,7 @@
         <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -772,6 +772,141 @@
         <v>0</v>
       </c>
       <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20:00:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Olancho</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Platense FC</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K3" t="n">
+        <v>950</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO3"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,260 +653,665 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>11:50:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>1.93</v>
       </c>
       <c r="G2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1000</v>
       </c>
-      <c r="H2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="AB2" t="n">
         <v>1000</v>
       </c>
-      <c r="J2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="AC2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI2" t="n">
         <v>1000</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Al Riyadh SC</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Al-Ettifaq</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NEOM Sports Club</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Al Najma Club</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Algerian Ligue 1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Belouizdad</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ES Setif</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Honduras Liga Nacional</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>2025-12-25</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Olancho</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Platense FC</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F6" t="n">
         <v>1.04</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G6" t="n">
         <v>1000</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H6" t="n">
         <v>1.04</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I6" t="n">
         <v>1000</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J6" t="n">
         <v>1.01</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K6" t="n">
         <v>950</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q6" t="n">
         <v>1.01</v>
       </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,81 +653,81 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:50:00</t>
+          <t>09:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Al-Ula FC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.93</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>2.04</v>
+        <v>3.7</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>2.34</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="J2" t="n">
-        <v>3.55</v>
+        <v>2.78</v>
       </c>
       <c r="K2" t="n">
-        <v>3.9</v>
+        <v>5.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.31</v>
+        <v>1.61</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
         <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="W2" t="n">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
@@ -736,40 +736,40 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>11:50:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.1</v>
+        <v>1.92</v>
       </c>
       <c r="G3" t="n">
-        <v>3.65</v>
+        <v>2.04</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
-        <v>2.54</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N3" t="n">
         <v>3.3</v>
       </c>
-      <c r="K3" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>12:05:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.43</v>
+        <v>2.64</v>
       </c>
       <c r="G4" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>7.8</v>
+        <v>2.4</v>
       </c>
       <c r="I4" t="n">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>2.62</v>
       </c>
       <c r="K4" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,260 +1058,665 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>12:25:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="H5" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.68</v>
+        <v>3.15</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P5" t="n">
-        <v>1.46</v>
+        <v>1.73</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Al Riyadh SC</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Al-Ettifaq</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X6" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NEOM Sports Club</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Al Najma Club</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3</v>
+      </c>
+      <c r="X7" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Algerian Ligue 1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-12-25</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>15:30:00</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Belouizdad</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>ES Setif</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Honduras Liga Nacional</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>2025-12-25</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>20:00:00</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Olancho</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Platense FC</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F9" t="n">
         <v>1.04</v>
       </c>
-      <c r="G6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="G9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H9" t="n">
         <v>1.04</v>
       </c>
-      <c r="I6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="I9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K9" t="n">
         <v>950</v>
       </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="Q9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="G2" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.34</v>
+        <v>2.08</v>
       </c>
       <c r="I2" t="n">
-        <v>3.35</v>
+        <v>2.32</v>
       </c>
       <c r="J2" t="n">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>5.8</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,34 +691,34 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.61</v>
+        <v>2.36</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q2" t="n">
         <v>1.94</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.94</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.42</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -820,7 +820,7 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -844,7 +844,7 @@
         <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
         <v>1.95</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G4" t="n">
         <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I4" t="n">
         <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="K4" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.56</v>
+        <v>2.52</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
@@ -976,13 +976,13 @@
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>1.96</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
         <v>1.4</v>
@@ -1072,58 +1072,58 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="G5" t="n">
-        <v>2.12</v>
+        <v>1.63</v>
       </c>
       <c r="H5" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>9.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>7.6</v>
+        <v>5.6</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>1.73</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="P5" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>1.81</v>
+        <v>2.86</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
-        <v>1.89</v>
+        <v>2.58</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
         <v>1000</v>
@@ -1150,10 +1150,10 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1216,7 +1216,7 @@
         <v>2.26</v>
       </c>
       <c r="I6" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J6" t="n">
         <v>3.35</v>
@@ -1225,13 +1225,13 @@
         <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.87</v>
+        <v>2.84</v>
       </c>
       <c r="O6" t="n">
         <v>1.31</v>
@@ -1246,13 +1246,13 @@
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>2.88</v>
+        <v>2.98</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V6" t="n">
         <v>1.64</v>
@@ -1345,7 +1345,7 @@
         <v>1.41</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="H7" t="n">
         <v>7.8</v>
@@ -1360,13 +1360,13 @@
         <v>5.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>2.22</v>
+        <v>3.4</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
@@ -1378,22 +1378,22 @@
         <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S7" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.73</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="X7" t="n">
         <v>25</v>
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.68</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P8" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -676,7 +676,7 @@
         <v>2.08</v>
       </c>
       <c r="I2" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J2" t="n">
         <v>3.2</v>
@@ -688,25 +688,25 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>2.36</v>
+        <v>3.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
-        <v>2.68</v>
+        <v>3.8</v>
       </c>
       <c r="T2" t="n">
         <v>1.04</v>
@@ -715,64 +715,64 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W2" t="n">
         <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -856,10 +856,10 @@
         <v>1.98</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="Z3" t="n">
         <v>36</v>
@@ -871,10 +871,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>990</v>
       </c>
       <c r="AD3" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
         <v>70</v>
@@ -883,10 +883,10 @@
         <v>12.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -970,7 +970,7 @@
         <v>1.56</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
@@ -1090,7 +1090,7 @@
         <v>5.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1111,7 +1111,7 @@
         <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.92</v>
@@ -1141,7 +1141,7 @@
         <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
         <v>3.85</v>
@@ -1228,91 +1228,91 @@
         <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>2.84</v>
+        <v>3.55</v>
       </c>
       <c r="O6" t="n">
         <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q6" t="n">
         <v>1.92</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>2.98</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>1.76</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="W6" t="n">
         <v>1.4</v>
       </c>
       <c r="X6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="AF6" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AL6" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1384,7 +1384,7 @@
         <v>2.36</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
         <v>1.04</v>
@@ -1396,10 +1396,10 @@
         <v>2.96</v>
       </c>
       <c r="X7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Y7" t="n">
-        <v>34</v>
+        <v>990</v>
       </c>
       <c r="Z7" t="n">
         <v>100</v>
@@ -1408,13 +1408,13 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>36</v>
+        <v>990</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1423,28 +1423,28 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1495,22 +1495,22 @@
         <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.53</v>
+        <v>2.48</v>
       </c>
       <c r="O8" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
         <v>1.53</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R8" t="n">
         <v>1.14</v>
@@ -1531,10 +1531,10 @@
         <v>2.08</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>990</v>
       </c>
       <c r="Y8" t="n">
-        <v>24</v>
+        <v>990</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>8.199999999999999</v>
+        <v>990</v>
       </c>
       <c r="AC8" t="n">
-        <v>12.5</v>
+        <v>990</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1558,7 +1558,7 @@
         <v>12.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>990</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -736,7 +736,7 @@
         <v>16</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
         <v>13.5</v>
@@ -835,7 +835,7 @@
         <v>1.79</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
@@ -856,13 +856,13 @@
         <v>1.98</v>
       </c>
       <c r="X3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
         <v>140</v>
@@ -871,19 +871,19 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>70</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>990</v>
@@ -892,19 +892,19 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AL3" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM3" t="n">
         <v>150</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>95</v>
@@ -1075,7 +1075,7 @@
         <v>1.49</v>
       </c>
       <c r="G5" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
@@ -1084,16 +1084,16 @@
         <v>9.6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.35</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>3.7</v>
@@ -1111,7 +1111,7 @@
         <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="T5" t="n">
         <v>1.92</v>
@@ -1120,10 +1120,10 @@
         <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1210,19 +1210,19 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I6" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1234,7 +1234,7 @@
         <v>3.55</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
         <v>1.88</v>
@@ -1255,10 +1255,10 @@
         <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X6" t="n">
         <v>15</v>
@@ -1270,7 +1270,7 @@
         <v>16.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
         <v>13.5</v>
@@ -1282,7 +1282,7 @@
         <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
         <v>24</v>
@@ -1294,22 +1294,22 @@
         <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
         <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
         <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO6" t="n">
         <v>22</v>
@@ -1345,7 +1345,7 @@
         <v>1.41</v>
       </c>
       <c r="G7" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
         <v>7.8</v>
@@ -1393,7 +1393,7 @@
         <v>1.12</v>
       </c>
       <c r="W7" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="X7" t="n">
         <v>30</v>
@@ -1423,7 +1423,7 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
         <v>990</v>
@@ -1438,13 +1438,13 @@
         <v>22</v>
       </c>
       <c r="AL7" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1480,13 +1480,13 @@
         <v>1.64</v>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="I8" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J8" t="n">
         <v>3.05</v>
@@ -1498,13 +1498,13 @@
         <v>1.46</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
         <v>1.53</v>
@@ -1513,28 +1513,28 @@
         <v>2.32</v>
       </c>
       <c r="R8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.14</v>
       </c>
-      <c r="S8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.12</v>
-      </c>
       <c r="W8" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="X8" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1567,7 +1567,7 @@
         <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -715,7 +715,7 @@
         <v>1.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W2" t="n">
         <v>1.3</v>
@@ -835,7 +835,7 @@
         <v>1.79</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
@@ -1075,7 +1075,7 @@
         <v>1.49</v>
       </c>
       <c r="G5" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
@@ -1111,7 +1111,7 @@
         <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="T5" t="n">
         <v>1.92</v>
@@ -1123,10 +1123,10 @@
         <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1216,10 +1216,10 @@
         <v>2.32</v>
       </c>
       <c r="I6" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
@@ -1240,7 +1240,7 @@
         <v>1.88</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="R6" t="n">
         <v>1.34</v>
@@ -1255,7 +1255,7 @@
         <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W6" t="n">
         <v>1.42</v>
@@ -1282,7 +1282,7 @@
         <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AF6" t="n">
         <v>24</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G7" t="n">
         <v>1.5</v>
@@ -1363,13 +1363,13 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
         <v>2.22</v>
@@ -1378,16 +1378,16 @@
         <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
         <v>1.12</v>
@@ -1396,55 +1396,55 @@
         <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>990</v>
       </c>
       <c r="Y7" t="n">
         <v>990</v>
       </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
         <v>990</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>990</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>8.800000000000001</v>
+        <v>6.4</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="G8" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H8" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I8" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.46</v>
@@ -1519,16 +1519,16 @@
         <v>4.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="U8" t="n">
         <v>1.6</v>
       </c>
       <c r="V8" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1624,100 +1624,100 @@
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
         <v>950</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.01</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -676,13 +676,13 @@
         <v>2.08</v>
       </c>
       <c r="I2" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="J2" t="n">
         <v>3.2</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -718,7 +718,7 @@
         <v>1.78</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -805,7 +805,7 @@
         <v>1.92</v>
       </c>
       <c r="G3" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H3" t="n">
         <v>4.3</v>
@@ -820,7 +820,7 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -832,10 +832,10 @@
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
@@ -871,7 +871,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -892,10 +892,10 @@
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>980</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="G5" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
         <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="X5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>980</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1162,7 +1162,7 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1213,13 +1213,13 @@
         <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
@@ -1231,37 +1231,37 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V6" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>1.42</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1270,7 +1270,7 @@
         <v>16.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AB6" t="n">
         <v>13.5</v>
@@ -1282,7 +1282,7 @@
         <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AF6" t="n">
         <v>24</v>
@@ -1294,25 +1294,25 @@
         <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ6" t="n">
         <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
         <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G7" t="n">
         <v>1.5</v>
@@ -1636,13 +1636,13 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="O9" t="n">
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="Q9" t="n">
         <v>1.28</v>
@@ -1654,10 +1654,10 @@
         <v>1.28</v>
       </c>
       <c r="T9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
         <v>1.01</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -688,19 +688,19 @@
         <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
         <v>3.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
         <v>1.74</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
         <v>1.28</v>
@@ -709,10 +709,10 @@
         <v>3.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="V2" t="n">
         <v>1.78</v>
@@ -721,7 +721,7 @@
         <v>1.31</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
         <v>10.5</v>
@@ -733,7 +733,7 @@
         <v>36</v>
       </c>
       <c r="AB2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
@@ -820,7 +820,7 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -832,16 +832,16 @@
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T3" t="n">
         <v>1.85</v>
@@ -868,7 +868,7 @@
         <v>140</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>990</v>
       </c>
       <c r="AC3" t="n">
         <v>990</v>
@@ -1090,7 +1090,7 @@
         <v>4.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1114,7 +1114,7 @@
         <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U5" t="n">
         <v>1.87</v>
@@ -1210,16 +1210,16 @@
         <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I6" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
@@ -1231,37 +1231,37 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O6" t="n">
         <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R6" t="n">
         <v>1.36</v>
       </c>
       <c r="S6" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T6" t="n">
         <v>1.7</v>
       </c>
       <c r="U6" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X6" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ6" t="n">
         <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AM6" t="n">
         <v>110</v>
@@ -1375,19 +1375,19 @@
         <v>2.22</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="R7" t="n">
         <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="T7" t="n">
         <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
         <v>1.12</v>
@@ -1408,7 +1408,7 @@
         <v>320</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AC7" t="n">
         <v>1000</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G8" t="n">
         <v>1.8</v>
@@ -1492,7 +1492,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.46</v>
@@ -1519,7 +1519,7 @@
         <v>4.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U8" t="n">
         <v>1.6</v>
@@ -1639,10 +1639,10 @@
         <v>1.36</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="Q9" t="n">
         <v>1.28</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G2" t="n">
         <v>4.3</v>
@@ -679,7 +679,7 @@
         <v>2.28</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K2" t="n">
         <v>3.7</v>
@@ -709,10 +709,10 @@
         <v>3.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
         <v>1.78</v>
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
         <v>2.02</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.55</v>
@@ -820,7 +820,7 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
@@ -844,7 +844,7 @@
         <v>3.65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
         <v>1.95</v>
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H4" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="K4" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -967,7 +967,7 @@
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q4" t="n">
         <v>1.98</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="G5" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
@@ -1084,16 +1084,16 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
         <v>1.32</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
         <v>3.7</v>
@@ -1108,13 +1108,13 @@
         <v>1.88</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
         <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U5" t="n">
         <v>1.87</v>
@@ -1123,7 +1123,7 @@
         <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC5" t="n">
         <v>11</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>2.94</v>
       </c>
       <c r="G6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="J6" t="n">
         <v>3.3</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.35</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
@@ -1231,49 +1231,49 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O6" t="n">
         <v>1.31</v>
       </c>
       <c r="P6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.92</v>
       </c>
-      <c r="Q6" t="n">
-        <v>1.88</v>
-      </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T6" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
         <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="W6" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
         <v>8.4</v>
@@ -1282,13 +1282,13 @@
         <v>12.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
         <v>17.5</v>
@@ -1312,7 +1312,7 @@
         <v>38</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1345,7 +1345,7 @@
         <v>1.41</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
         <v>7.8</v>
@@ -1384,7 +1384,7 @@
         <v>2.66</v>
       </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U7" t="n">
         <v>1.91</v>
@@ -1408,7 +1408,7 @@
         <v>320</v>
       </c>
       <c r="AB7" t="n">
-        <v>13</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
         <v>1000</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="G8" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="H8" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="I8" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P8" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S8" t="n">
-        <v>4.5</v>
+        <v>1.05</v>
       </c>
       <c r="T8" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U8" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="V8" t="n">
         <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AC8" t="n">
         <v>1000</v>
@@ -1612,46 +1612,46 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>2.7</v>
       </c>
       <c r="K9" t="n">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M9" t="n">
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.36</v>
+        <v>2.6</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.36</v>
+        <v>1.87</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.28</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>1.28</v>
+        <v>2.28</v>
       </c>
       <c r="T9" t="n">
         <v>1.04</v>
@@ -1660,10 +1660,10 @@
         <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.77</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -676,16 +676,16 @@
         <v>2.08</v>
       </c>
       <c r="I2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K2" t="n">
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -709,13 +709,13 @@
         <v>3.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W2" t="n">
         <v>1.31</v>
@@ -844,7 +844,7 @@
         <v>3.65</v>
       </c>
       <c r="T3" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="U3" t="n">
         <v>1.95</v>
@@ -967,10 +967,10 @@
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
@@ -1075,16 +1075,16 @@
         <v>1.54</v>
       </c>
       <c r="G5" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
@@ -1102,7 +1102,7 @@
         <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q5" t="n">
         <v>1.88</v>
@@ -1120,10 +1120,10 @@
         <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.94</v>
+        <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2.42</v>
+        <v>2.32</v>
       </c>
       <c r="I6" t="n">
-        <v>2.66</v>
+        <v>2.56</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
@@ -1237,13 +1237,13 @@
         <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="S6" t="n">
         <v>3.3</v>
@@ -1255,10 +1255,10 @@
         <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="W6" t="n">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="X6" t="n">
         <v>17.5</v>
@@ -1267,19 +1267,19 @@
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AC6" t="n">
         <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>980</v>
@@ -1288,7 +1288,7 @@
         <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>17.5</v>
@@ -1297,7 +1297,7 @@
         <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="n">
         <v>38</v>
@@ -1309,10 +1309,10 @@
         <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AO6" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1342,28 +1342,28 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
         <v>4.5</v>
@@ -1372,25 +1372,25 @@
         <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
         <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T7" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
         <v>3</v>
@@ -1411,7 +1411,7 @@
         <v>9.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
         <v>990</v>
@@ -1441,7 +1441,7 @@
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
         <v>6.4</v>
@@ -1480,55 +1480,55 @@
         <v>1.57</v>
       </c>
       <c r="G8" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="H8" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="I8" t="n">
         <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="W8" t="n">
         <v>2.44</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.4</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1621,10 +1621,10 @@
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="K9" t="n">
         <v>5</v>
@@ -1636,31 +1636,31 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="R9" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S9" t="n">
         <v>2.28</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="V9" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="W9" t="n">
         <v>1.77</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -709,7 +709,7 @@
         <v>3.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
         <v>1.95</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="G3" t="n">
         <v>2.02</v>
@@ -817,7 +817,7 @@
         <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
         <v>1.36</v>
@@ -1084,7 +1084,7 @@
         <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
@@ -1210,16 +1210,16 @@
         <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
         <v>2.32</v>
       </c>
       <c r="I6" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
@@ -1237,7 +1237,7 @@
         <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="Q6" t="n">
         <v>1.9</v>
@@ -1255,10 +1255,10 @@
         <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="W6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X6" t="n">
         <v>17.5</v>
@@ -1312,7 +1312,7 @@
         <v>42</v>
       </c>
       <c r="AO6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="H7" t="n">
         <v>8</v>
@@ -1357,7 +1357,7 @@
         <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1372,10 +1372,10 @@
         <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R7" t="n">
         <v>1.48</v>
@@ -1387,7 +1387,7 @@
         <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="V7" t="n">
         <v>1.11</v>
@@ -1489,7 +1489,7 @@
         <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>4.3</v>
@@ -1615,19 +1615,19 @@
         <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="J9" t="n">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.26</v>
@@ -1636,7 +1636,7 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O9" t="n">
         <v>1.26</v>
@@ -1645,7 +1645,7 @@
         <v>1.98</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="R9" t="n">
         <v>1.39</v>
@@ -1663,7 +1663,7 @@
         <v>1.27</v>
       </c>
       <c r="W9" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H2" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
         <v>2.26</v>
       </c>
       <c r="J2" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
         <v>1.45</v>
@@ -691,28 +691,28 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.15</v>
+        <v>2.28</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.08</v>
       </c>
       <c r="P2" t="n">
-        <v>1.74</v>
+        <v>1.63</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>3.8</v>
+        <v>2.68</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>1.04</v>
       </c>
       <c r="V2" t="n">
         <v>1.79</v>
@@ -721,58 +721,58 @@
         <v>1.31</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -832,7 +832,7 @@
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
         <v>1.94</v>
@@ -937,37 +937,37 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="G4" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="H4" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="J4" t="n">
-        <v>2.68</v>
+        <v>2.24</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.52</v>
+        <v>1.78</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
@@ -976,7 +976,7 @@
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="W4" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5" t="n">
         <v>3.95</v>
@@ -1090,7 +1090,7 @@
         <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
@@ -1099,13 +1099,13 @@
         <v>3.7</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="R5" t="n">
         <v>1.36</v>
@@ -1114,16 +1114,16 @@
         <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1252,10 +1252,10 @@
         <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="V6" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>1.42</v>
@@ -1345,7 +1345,7 @@
         <v>1.42</v>
       </c>
       <c r="G7" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
         <v>8</v>
@@ -1387,7 +1387,7 @@
         <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
         <v>1.11</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="AC8" t="n">
         <v>1000</v>
@@ -1615,19 +1615,19 @@
         <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>2.24</v>
+        <v>2.16</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I9" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L9" t="n">
         <v>1.26</v>
@@ -1642,28 +1642,28 @@
         <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="Q9" t="n">
         <v>1.72</v>
       </c>
       <c r="R9" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S9" t="n">
         <v>2.28</v>
       </c>
       <c r="T9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="U9" t="n">
         <v>1.81</v>
       </c>
       <c r="V9" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="G2" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="I2" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.45</v>
@@ -691,88 +691,88 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>2.68</v>
+        <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>1.04</v>
+        <v>1.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="G3" t="n">
         <v>2.02</v>
@@ -811,19 +811,19 @@
         <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
         <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
         <v>3.3</v>
@@ -832,19 +832,19 @@
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U3" t="n">
         <v>1.95</v>
@@ -853,7 +853,7 @@
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="G4" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H4" t="n">
         <v>2.58</v>
       </c>
       <c r="I4" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.24</v>
+        <v>2.72</v>
       </c>
       <c r="K4" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.37</v>
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
@@ -976,7 +976,7 @@
         <v>1.18</v>
       </c>
       <c r="S4" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="W4" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,49 +1072,49 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="I5" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
         <v>1.93</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
         <v>1.36</v>
       </c>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="U5" t="n">
         <v>1.83</v>
@@ -1123,7 +1123,7 @@
         <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,20 +1138,20 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
         <v>11</v>
       </c>
-      <c r="AD5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AG5" t="n">
         <v>1000</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1213,7 +1213,7 @@
         <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
         <v>2.5</v>
@@ -1354,19 +1354,19 @@
         <v>9.6</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
@@ -1396,7 +1396,7 @@
         <v>3</v>
       </c>
       <c r="X7" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="Y7" t="n">
         <v>990</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="G8" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="H8" t="n">
         <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.45</v>
@@ -1501,22 +1501,22 @@
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="O8" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
         <v>1.54</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R8" t="n">
         <v>1.19</v>
       </c>
       <c r="S8" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="T8" t="n">
         <v>2.36</v>
@@ -1525,10 +1525,10 @@
         <v>1.58</v>
       </c>
       <c r="V8" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W8" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1615,7 +1615,7 @@
         <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H9" t="n">
         <v>3.55</v>
@@ -1633,13 +1633,13 @@
         <v>1.26</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>2.76</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P9" t="n">
         <v>1.92</v>
@@ -1651,19 +1651,19 @@
         <v>1.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2.28</v>
+        <v>2.78</v>
       </c>
       <c r="T9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U9" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
         <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -670,7 +670,7 @@
         <v>3.75</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
         <v>2.04</v>
@@ -718,10 +718,10 @@
         <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="n">
         <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
         <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.36</v>
@@ -832,16 +832,16 @@
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T3" t="n">
         <v>1.87</v>
@@ -850,10 +850,10 @@
         <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="G4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="I4" t="n">
         <v>3.6</v>
@@ -952,7 +952,7 @@
         <v>2.72</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
         <v>1.37</v>
@@ -967,10 +967,10 @@
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
         <v>1.18</v>
@@ -985,7 +985,7 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W4" t="n">
         <v>1.43</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="G5" t="n">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
         <v>8.6</v>
@@ -1120,10 +1120,10 @@
         <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1222,7 +1222,7 @@
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1252,7 +1252,7 @@
         <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="V6" t="n">
         <v>1.67</v>
@@ -1267,13 +1267,13 @@
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA6" t="n">
         <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC6" t="n">
         <v>8.4</v>
@@ -1297,10 +1297,10 @@
         <v>980</v>
       </c>
       <c r="AJ6" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AL6" t="n">
         <v>980</v>
@@ -1348,16 +1348,16 @@
         <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K7" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,25 +1366,25 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
         <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="T7" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
@@ -1393,37 +1393,37 @@
         <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="X7" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="Y7" t="n">
         <v>990</v>
       </c>
       <c r="Z7" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AA7" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
         <v>990</v>
       </c>
       <c r="AE7" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
         <v>990</v>
@@ -1432,19 +1432,19 @@
         <v>130</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AL7" t="n">
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G8" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="H8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
@@ -1501,34 +1501,34 @@
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P8" t="n">
         <v>1.54</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R8" t="n">
         <v>1.19</v>
       </c>
       <c r="S8" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="U8" t="n">
         <v>1.58</v>
       </c>
       <c r="V8" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1615,7 +1615,7 @@
         <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H9" t="n">
         <v>3.55</v>
@@ -1627,7 +1627,7 @@
         <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.26</v>
@@ -1636,16 +1636,16 @@
         <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
         <v>1.92</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
         <v>1.38</v>
@@ -1654,16 +1654,16 @@
         <v>2.78</v>
       </c>
       <c r="T9" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="V9" t="n">
         <v>1.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -709,13 +709,13 @@
         <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
         <v>1.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W2" t="n">
         <v>1.31</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G3" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
         <v>4.4</v>
@@ -814,7 +814,7 @@
         <v>5.1</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K3" t="n">
         <v>3.9</v>
@@ -835,7 +835,7 @@
         <v>1.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="R3" t="n">
         <v>1.3</v>
@@ -847,13 +847,13 @@
         <v>1.87</v>
       </c>
       <c r="U3" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V3" t="n">
         <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,7 +871,7 @@
         <v>990</v>
       </c>
       <c r="AC3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -937,19 +937,19 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.62</v>
+        <v>2.46</v>
       </c>
       <c r="G4" t="n">
         <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.72</v>
+        <v>2.78</v>
       </c>
       <c r="K4" t="n">
         <v>3.6</v>
@@ -961,10 +961,10 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.81</v>
+        <v>2.64</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
         <v>1.66</v>
@@ -973,7 +973,7 @@
         <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S4" t="n">
         <v>2.78</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W4" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,40 +1072,40 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="H5" t="n">
         <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
         <v>1.36</v>
@@ -1114,7 +1114,7 @@
         <v>3.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U5" t="n">
         <v>1.83</v>
@@ -1123,7 +1123,7 @@
         <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1213,10 +1213,10 @@
         <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
@@ -1240,7 +1240,7 @@
         <v>1.91</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="R6" t="n">
         <v>1.36</v>
@@ -1252,13 +1252,13 @@
         <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="W6" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="X6" t="n">
         <v>17.5</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="H7" t="n">
         <v>8.199999999999999</v>
@@ -1357,7 +1357,7 @@
         <v>4.9</v>
       </c>
       <c r="K7" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,25 +1366,25 @@
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.23</v>
       </c>
       <c r="P7" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="Q7" t="n">
         <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="T7" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
@@ -1393,7 +1393,7 @@
         <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="X7" t="n">
         <v>990</v>
@@ -1405,10 +1405,10 @@
         <v>100</v>
       </c>
       <c r="AA7" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC7" t="n">
         <v>12</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="G8" t="n">
         <v>1.76</v>
       </c>
       <c r="H8" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I8" t="n">
         <v>9.6</v>
@@ -1492,7 +1492,7 @@
         <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
         <v>1.45</v>
@@ -1501,7 +1501,7 @@
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="O8" t="n">
         <v>1.51</v>
@@ -1510,7 +1510,7 @@
         <v>1.54</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
         <v>1.19</v>
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>1.97</v>
       </c>
       <c r="G9" t="n">
-        <v>2.16</v>
+        <v>2.34</v>
       </c>
       <c r="H9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M9" t="n">
         <v>1.05</v>
@@ -1639,7 +1639,7 @@
         <v>3.65</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
         <v>1.92</v>
@@ -1648,22 +1648,22 @@
         <v>1.78</v>
       </c>
       <c r="R9" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -670,7 +670,7 @@
         <v>3.75</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
         <v>2.04</v>
@@ -685,7 +685,7 @@
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -718,7 +718,7 @@
         <v>1.81</v>
       </c>
       <c r="W2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -748,7 +748,7 @@
         <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH2" t="n">
         <v>24</v>
@@ -802,49 +802,49 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H3" t="n">
         <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J3" t="n">
         <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R3" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="U3" t="n">
         <v>1.96</v>
@@ -859,19 +859,19 @@
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z3" t="n">
         <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AB3" t="n">
         <v>990</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
         <v>990</v>
@@ -901,7 +901,7 @@
         <v>980</v>
       </c>
       <c r="AM3" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN3" t="n">
         <v>1000</v>
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="G4" t="n">
         <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I4" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="J4" t="n">
         <v>2.78</v>
@@ -961,34 +961,34 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="O4" t="n">
         <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R4" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="S4" t="n">
         <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U4" t="n">
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="W4" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1078,13 +1078,13 @@
         <v>1.58</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="I5" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="K5" t="n">
         <v>4.7</v>
@@ -1096,34 +1096,34 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="Q5" t="n">
         <v>1.87</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
         <v>3.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="V5" t="n">
         <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC5" t="n">
         <v>12</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1165,7 +1165,7 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G6" t="n">
         <v>3.4</v>
@@ -1222,7 +1222,7 @@
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,13 +1231,13 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O6" t="n">
         <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
         <v>1.96</v>
@@ -1252,7 +1252,7 @@
         <v>1.72</v>
       </c>
       <c r="U6" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V6" t="n">
         <v>1.66</v>
@@ -1276,7 +1276,7 @@
         <v>13.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>12</v>
@@ -1288,10 +1288,10 @@
         <v>23</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
         <v>980</v>
@@ -1309,10 +1309,10 @@
         <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -1345,46 +1345,46 @@
         <v>1.41</v>
       </c>
       <c r="G7" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="H7" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S7" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="T7" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
@@ -1417,7 +1417,7 @@
         <v>990</v>
       </c>
       <c r="AE7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF7" t="n">
         <v>9.199999999999999</v>
@@ -1435,7 +1435,7 @@
         <v>12.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
         <v>980</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="G8" t="n">
         <v>1.76</v>
@@ -1486,49 +1486,49 @@
         <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="K8" t="n">
         <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.58</v>
+        <v>2.48</v>
       </c>
       <c r="O8" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="P8" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="R8" t="n">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="S8" t="n">
         <v>5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.58</v>
+        <v>1.52</v>
       </c>
       <c r="V8" t="n">
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>970</v>
+        <v>6.4</v>
       </c>
       <c r="AC8" t="n">
         <v>1000</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G9" t="n">
         <v>2.34</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J9" t="n">
         <v>3.2</v>
@@ -1633,37 +1633,37 @@
         <v>1.27</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
         <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>2.8</v>
+        <v>2.96</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W9" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -670,10 +670,10 @@
         <v>3.75</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H2" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="I2" t="n">
         <v>2.24</v>
@@ -682,10 +682,10 @@
         <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -715,25 +715,25 @@
         <v>1.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="Z2" t="n">
         <v>15.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC2" t="n">
         <v>8.199999999999999</v>
@@ -742,13 +742,13 @@
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF2" t="n">
         <v>34</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH2" t="n">
         <v>24</v>
@@ -772,7 +772,7 @@
         <v>75</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="G3" t="n">
         <v>1.97</v>
@@ -811,13 +811,13 @@
         <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="J3" t="n">
         <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.41</v>
@@ -826,28 +826,28 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R3" t="n">
         <v>1.31</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T3" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>1.25</v>
@@ -856,13 +856,13 @@
         <v>2.02</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA3" t="n">
         <v>130</v>
@@ -871,7 +871,7 @@
         <v>990</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -886,7 +886,7 @@
         <v>990</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>140</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="I4" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="J4" t="n">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
         <v>1.37</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
         <v>2.66</v>
@@ -985,10 +985,10 @@
         <v>1.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,43 +1072,43 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="G5" t="n">
         <v>1.58</v>
       </c>
       <c r="H5" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.86</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.87</v>
-      </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S5" t="n">
         <v>3.2</v>
@@ -1117,13 +1117,13 @@
         <v>1.97</v>
       </c>
       <c r="U5" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
         <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1138,7 +1138,7 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
         <v>12</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I6" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="n">
         <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1234,25 +1234,25 @@
         <v>3.65</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q6" t="n">
         <v>1.96</v>
       </c>
       <c r="R6" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V6" t="n">
         <v>1.66</v>
@@ -1273,10 +1273,10 @@
         <v>980</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>12</v>
@@ -1285,13 +1285,13 @@
         <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG6" t="n">
         <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI6" t="n">
         <v>980</v>
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="G7" t="n">
         <v>1.45</v>
       </c>
       <c r="H7" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
         <v>5.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
@@ -1369,13 +1369,13 @@
         <v>4.8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
         <v>2.3</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="R7" t="n">
         <v>1.51</v>
@@ -1384,7 +1384,7 @@
         <v>2.64</v>
       </c>
       <c r="T7" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
@@ -1393,7 +1393,7 @@
         <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="X7" t="n">
         <v>990</v>
@@ -1435,16 +1435,16 @@
         <v>12.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AL7" t="n">
         <v>980</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="G8" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="H8" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J8" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="O8" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="P8" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="Q8" t="n">
         <v>2.44</v>
       </c>
       <c r="R8" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="T8" t="n">
         <v>2.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="V8" t="n">
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
         <v>4.3</v>
@@ -1636,34 +1636,34 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
         <v>1.35</v>
       </c>
       <c r="S9" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U9" t="n">
         <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K2" t="n">
         <v>3.75</v>
       </c>
-      <c r="G2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -694,16 +694,16 @@
         <v>3.15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q2" t="n">
         <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S2" t="n">
         <v>3.85</v>
@@ -715,10 +715,10 @@
         <v>1.96</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="W2" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -727,10 +727,10 @@
         <v>9.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -739,13 +739,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
@@ -760,7 +760,7 @@
         <v>100</v>
       </c>
       <c r="AK2" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL2" t="n">
         <v>80</v>
@@ -772,7 +772,7 @@
         <v>75</v>
       </c>
       <c r="AO2" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
@@ -805,10 +805,10 @@
         <v>1.86</v>
       </c>
       <c r="G3" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I3" t="n">
         <v>5.1</v>
@@ -817,7 +817,7 @@
         <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
         <v>1.41</v>
@@ -826,7 +826,7 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
@@ -835,7 +835,7 @@
         <v>1.87</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
         <v>1.31</v>
@@ -859,19 +859,19 @@
         <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="n">
         <v>130</v>
       </c>
       <c r="AB3" t="n">
-        <v>990</v>
+        <v>9.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -904,7 +904,7 @@
         <v>140</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -961,16 +961,16 @@
         <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>2.66</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="P4" t="n">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="R4" t="n">
         <v>1.19</v>
@@ -979,10 +979,10 @@
         <v>2.78</v>
       </c>
       <c r="T4" t="n">
-        <v>1.05</v>
+        <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
         <v>1.46</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="G5" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.36</v>
@@ -1096,28 +1096,28 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S5" t="n">
         <v>3.2</v>
       </c>
       <c r="T5" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V5" t="n">
         <v>1.13</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1210,22 +1210,22 @@
         <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I6" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1234,13 +1234,13 @@
         <v>3.65</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="R6" t="n">
         <v>1.35</v>
@@ -1252,16 +1252,16 @@
         <v>1.73</v>
       </c>
       <c r="U6" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="V6" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="W6" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1345,7 +1345,7 @@
         <v>1.39</v>
       </c>
       <c r="G7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H7" t="n">
         <v>8.800000000000001</v>
@@ -1354,25 +1354,25 @@
         <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>5.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q7" t="n">
         <v>1.64</v>
@@ -1384,16 +1384,16 @@
         <v>2.64</v>
       </c>
       <c r="T7" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X7" t="n">
         <v>990</v>
@@ -1402,7 +1402,7 @@
         <v>990</v>
       </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="n">
         <v>340</v>
@@ -1435,7 +1435,7 @@
         <v>12.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL7" t="n">
         <v>980</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G8" t="n">
         <v>1.74</v>
@@ -1501,19 +1501,19 @@
         <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="O8" t="n">
         <v>1.57</v>
       </c>
       <c r="P8" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
         <v>2.44</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S8" t="n">
         <v>4.9</v>
@@ -1522,7 +1522,7 @@
         <v>2.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="V8" t="n">
         <v>1.13</v>
@@ -1531,10 +1531,10 @@
         <v>2.34</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1546,7 +1546,7 @@
         <v>6.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -670,37 +670,37 @@
         <v>3.85</v>
       </c>
       <c r="G2" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H2" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="I2" t="n">
         <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
         <v>1.28</v>
@@ -712,25 +712,25 @@
         <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
         <v>1.82</v>
       </c>
       <c r="W2" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="Z2" t="n">
         <v>13.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB2" t="n">
         <v>15</v>
@@ -745,7 +745,7 @@
         <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="n">
         <v>19</v>
@@ -763,13 +763,13 @@
         <v>60</v>
       </c>
       <c r="AL2" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -802,73 +802,73 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="G3" t="n">
         <v>1.98</v>
       </c>
       <c r="H3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I3" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="J3" t="n">
         <v>3.65</v>
       </c>
       <c r="K3" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="R3" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S3" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W3" t="n">
         <v>2.02</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AA3" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
@@ -904,7 +904,7 @@
         <v>140</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>2.78</v>
+        <v>3.95</v>
       </c>
       <c r="T4" t="n">
         <v>1.84</v>
@@ -985,49 +985,49 @@
         <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="W4" t="n">
         <v>1.5</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -1072,43 +1072,43 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="G5" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="H5" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="I5" t="n">
         <v>8.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
         <v>3.2</v>
@@ -1126,10 +1126,10 @@
         <v>2.72</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,7 +1150,7 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
@@ -1213,25 +1213,25 @@
         <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I6" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="O6" t="n">
         <v>1.31</v>
@@ -1240,22 +1240,22 @@
         <v>1.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R6" t="n">
         <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U6" t="n">
         <v>2.28</v>
       </c>
       <c r="V6" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="W6" t="n">
         <v>1.42</v>
@@ -1270,7 +1270,7 @@
         <v>16.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
@@ -1285,13 +1285,13 @@
         <v>980</v>
       </c>
       <c r="AF6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG6" t="n">
         <v>14.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI6" t="n">
         <v>980</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
@@ -1348,40 +1348,40 @@
         <v>1.44</v>
       </c>
       <c r="H7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="I7" t="n">
         <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K7" t="n">
         <v>5.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="T7" t="n">
         <v>1.88</v>
@@ -1390,7 +1390,7 @@
         <v>1.95</v>
       </c>
       <c r="V7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W7" t="n">
         <v>3.25</v>
@@ -1402,13 +1402,13 @@
         <v>990</v>
       </c>
       <c r="Z7" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA7" t="n">
         <v>340</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
         <v>12</v>
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G8" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="H8" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N8" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="O8" t="n">
         <v>1.57</v>
       </c>
       <c r="P8" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="T8" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="U8" t="n">
-        <v>1.47</v>
+        <v>1.59</v>
       </c>
       <c r="V8" t="n">
         <v>1.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="X8" t="n">
         <v>990</v>
@@ -1615,55 +1615,55 @@
         <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
       </c>
       <c r="L9" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P9" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="R9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
         <v>1.68</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
         <v>1.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I2" t="n">
         <v>2.22</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
         <v>1.46</v>
@@ -697,7 +697,7 @@
         <v>1.37</v>
       </c>
       <c r="P2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q2" t="n">
         <v>2.12</v>
@@ -709,7 +709,7 @@
         <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U2" t="n">
         <v>1.94</v>
@@ -718,7 +718,7 @@
         <v>1.82</v>
       </c>
       <c r="W2" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="X2" t="n">
         <v>13</v>
@@ -802,10 +802,10 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="G3" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="H3" t="n">
         <v>4.4</v>
@@ -814,10 +814,10 @@
         <v>4.8</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -847,13 +847,13 @@
         <v>1.86</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V3" t="n">
         <v>1.27</v>
       </c>
       <c r="W3" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="X3" t="n">
         <v>15</v>
@@ -883,7 +883,7 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
         <v>21</v>
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H4" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="I4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.1</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.05</v>
-      </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
@@ -970,25 +970,25 @@
         <v>1.72</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
         <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
         <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="W4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
@@ -1003,7 +1003,7 @@
         <v>55</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC4" t="n">
         <v>7.8</v>
@@ -1018,7 +1018,7 @@
         <v>22</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
         <v>22</v>
@@ -1075,13 +1075,13 @@
         <v>1.51</v>
       </c>
       <c r="G5" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="J5" t="n">
         <v>4.2</v>
@@ -1090,43 +1090,43 @@
         <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P5" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V5" t="n">
         <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="X5" t="n">
-        <v>990</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
         <v>29</v>
@@ -1138,13 +1138,13 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,7 +1153,7 @@
         <v>9.4</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
         <v>1000</v>
@@ -1162,10 +1162,10 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,16 +1210,16 @@
         <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H6" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="I6" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>3.7</v>
@@ -1231,34 +1231,34 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
         <v>1.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="R6" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U6" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X6" t="n">
         <v>18</v>
@@ -1342,64 +1342,64 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="G7" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H7" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="I7" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="J7" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="K7" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
         <v>1.22</v>
       </c>
       <c r="P7" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S7" t="n">
-        <v>2.78</v>
+        <v>2.7</v>
       </c>
       <c r="T7" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="U7" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
         <v>1.11</v>
       </c>
       <c r="W7" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X7" t="n">
         <v>990</v>
       </c>
       <c r="Y7" t="n">
-        <v>990</v>
+        <v>42</v>
       </c>
       <c r="Z7" t="n">
         <v>100</v>
@@ -1408,10 +1408,10 @@
         <v>340</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AD7" t="n">
         <v>990</v>
@@ -1420,10 +1420,10 @@
         <v>150</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
         <v>990</v>
@@ -1432,10 +1432,10 @@
         <v>130</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL7" t="n">
         <v>980</v>
@@ -1444,7 +1444,7 @@
         <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1477,61 +1477,61 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
-        <v>1.76</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="I8" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="M8" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N8" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="O8" t="n">
         <v>1.57</v>
       </c>
       <c r="P8" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="U8" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="W8" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="X8" t="n">
-        <v>990</v>
+        <v>55</v>
       </c>
       <c r="Y8" t="n">
         <v>990</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>990</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G9" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
@@ -1639,7 +1639,7 @@
         <v>3.65</v>
       </c>
       <c r="O9" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
         <v>1.94</v>
@@ -1654,16 +1654,16 @@
         <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
         <v>1.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="G2" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="I2" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.46</v>
@@ -691,85 +691,85 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P2" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R2" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S2" t="n">
         <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="W2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AA2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE2" t="n">
         <v>26</v>
       </c>
       <c r="AF2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL2" t="n">
         <v>60</v>
       </c>
-      <c r="AL2" t="n">
-        <v>70</v>
-      </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -802,91 +802,91 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="G3" t="n">
-        <v>1.93</v>
+        <v>2.06</v>
       </c>
       <c r="H3" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="I3" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O3" t="n">
         <v>1.34</v>
       </c>
       <c r="P3" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="U3" t="n">
-        <v>1.96</v>
+        <v>2.06</v>
       </c>
       <c r="V3" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z3" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
@@ -895,19 +895,19 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.64</v>
+        <v>2.56</v>
       </c>
       <c r="G4" t="n">
-        <v>2.98</v>
+        <v>2.78</v>
       </c>
       <c r="H4" t="n">
-        <v>2.8</v>
+        <v>2.94</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="J4" t="n">
         <v>3.1</v>
@@ -961,7 +961,7 @@
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
@@ -982,52 +982,52 @@
         <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.47</v>
+        <v>1.43</v>
       </c>
       <c r="W4" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>55</v>
       </c>
       <c r="AB4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC4" t="n">
         <v>7.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
         <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="I5" t="n">
-        <v>8.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P5" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="R5" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="V5" t="n">
         <v>1.13</v>
       </c>
       <c r="W5" t="n">
-        <v>2.66</v>
+        <v>2.88</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1138,19 +1138,19 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AD5" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AG5" t="n">
         <v>10.5</v>
@@ -1162,10 +1162,10 @@
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1210,22 +1210,22 @@
         <v>3.15</v>
       </c>
       <c r="G6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="I6" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
         <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1237,82 +1237,82 @@
         <v>1.32</v>
       </c>
       <c r="P6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="S6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="T6" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="U6" t="n">
         <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="W6" t="n">
         <v>1.43</v>
       </c>
       <c r="X6" t="n">
-        <v>18</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AB6" t="n">
         <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AF6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH6" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AJ6" t="n">
         <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AM6" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -1342,82 +1342,82 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="G7" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="H7" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="L7" t="n">
         <v>1.32</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P7" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="R7" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S7" t="n">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="T7" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="X7" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y7" t="n">
         <v>990</v>
       </c>
-      <c r="Y7" t="n">
-        <v>42</v>
-      </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA7" t="n">
-        <v>340</v>
+        <v>470</v>
       </c>
       <c r="AB7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="AE7" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1426,28 +1426,28 @@
         <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>990</v>
+        <v>29</v>
       </c>
       <c r="AI7" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1477,61 +1477,61 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="H8" t="n">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I8" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="M8" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="O8" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="S8" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="V8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="Y8" t="n">
         <v>990</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.8</v>
+        <v>11</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>990</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1615,13 +1615,13 @@
         <v>1.99</v>
       </c>
       <c r="G9" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H9" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
@@ -1636,34 +1636,34 @@
         <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O9" t="n">
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S9" t="n">
         <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
         <v>1.32</v>
       </c>
       <c r="W9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I2" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J2" t="n">
         <v>3.3</v>
@@ -685,7 +685,7 @@
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.08</v>
@@ -694,46 +694,46 @@
         <v>3.5</v>
       </c>
       <c r="O2" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P2" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S2" t="n">
         <v>3.85</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
         <v>2.04</v>
       </c>
       <c r="V2" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z2" t="n">
         <v>14.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>16</v>
       </c>
       <c r="AA2" t="n">
         <v>32</v>
       </c>
       <c r="AB2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC2" t="n">
         <v>7.8</v>
@@ -742,10 +742,10 @@
         <v>11.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AG2" t="n">
         <v>15.5</v>
@@ -760,7 +760,7 @@
         <v>85</v>
       </c>
       <c r="AK2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL2" t="n">
         <v>60</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO2" t="n">
         <v>21</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H3" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="J3" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.95</v>
       </c>
       <c r="L3" t="n">
         <v>1.44</v>
@@ -826,88 +826,88 @@
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U3" t="n">
         <v>2</v>
       </c>
-      <c r="R3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U3" t="n">
-        <v>2.06</v>
-      </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="W3" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA3" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG3" t="n">
         <v>10.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK3" t="n">
         <v>22</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="G4" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H4" t="n">
         <v>2.94</v>
       </c>
       <c r="I4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L4" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
         <v>3.25</v>
@@ -967,28 +967,28 @@
         <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="T4" t="n">
         <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V4" t="n">
         <v>1.43</v>
       </c>
       <c r="W4" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X4" t="n">
         <v>12</v>
@@ -1015,10 +1015,10 @@
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
         <v>22</v>
@@ -1030,7 +1030,7 @@
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -1072,64 +1072,64 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="H5" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="L5" t="n">
         <v>1.37</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>2.96</v>
+        <v>2.82</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V5" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y5" t="n">
-        <v>34</v>
+        <v>990</v>
       </c>
       <c r="Z5" t="n">
         <v>1000</v>
@@ -1150,22 +1150,22 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AK5" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>8.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,61 +1207,61 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
         <v>3.3</v>
       </c>
       <c r="H6" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="I6" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
         <v>3.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P6" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
         <v>1.37</v>
       </c>
       <c r="S6" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T6" t="n">
         <v>1.74</v>
       </c>
       <c r="U6" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="W6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1276,7 +1276,7 @@
         <v>13</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
         <v>11.5</v>
@@ -1294,10 +1294,10 @@
         <v>18</v>
       </c>
       <c r="AI6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK6" t="n">
         <v>38</v>
@@ -1312,7 +1312,7 @@
         <v>34</v>
       </c>
       <c r="AO6" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -1351,13 +1351,13 @@
         <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
         <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L7" t="n">
         <v>1.32</v>
@@ -1369,46 +1369,46 @@
         <v>5.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P7" t="n">
         <v>2.46</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R7" t="n">
         <v>1.56</v>
       </c>
       <c r="S7" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="V7" t="n">
         <v>1.09</v>
       </c>
       <c r="W7" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="X7" t="n">
         <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>990</v>
+        <v>44</v>
       </c>
       <c r="Z7" t="n">
         <v>110</v>
       </c>
       <c r="AA7" t="n">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="AC7" t="n">
         <v>13.5</v>
@@ -1417,13 +1417,13 @@
         <v>40</v>
       </c>
       <c r="AE7" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
         <v>29</v>
@@ -1432,19 +1432,19 @@
         <v>140</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM7" t="n">
         <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="AO7" t="n">
         <v>200</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G8" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="H8" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.64</v>
@@ -1504,22 +1504,22 @@
         <v>2.44</v>
       </c>
       <c r="O8" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="P8" t="n">
         <v>1.47</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="R8" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="S8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="U8" t="n">
         <v>1.55</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>5.9</v>
       </c>
       <c r="AC8" t="n">
         <v>990</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
         <v>4.1</v>
@@ -1642,7 +1642,7 @@
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
         <v>1.79</v>
@@ -1651,19 +1651,19 @@
         <v>1.4</v>
       </c>
       <c r="S9" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
         <v>1.66</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H2" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="I2" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="R2" t="n">
         <v>1.3</v>
       </c>
       <c r="S2" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.32</v>
       </c>
       <c r="U2" t="n">
-        <v>2.04</v>
+        <v>3.55</v>
       </c>
       <c r="V2" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="X2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH2" t="n">
         <v>14</v>
       </c>
-      <c r="Y2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AI2" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
         <v>27</v>
       </c>
-      <c r="AF2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI2" t="n">
+      <c r="AL2" t="n">
         <v>44</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>60</v>
-      </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO2" t="n">
-        <v>21</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3">
@@ -808,103 +808,103 @@
         <v>2.08</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I3" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="O3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.32</v>
       </c>
-      <c r="P3" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.36</v>
-      </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V3" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W3" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X3" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y3" t="n">
         <v>15</v>
       </c>
-      <c r="Y3" t="n">
-        <v>15.5</v>
-      </c>
       <c r="Z3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA3" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AB3" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="AJ3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>38</v>
       </c>
       <c r="AM3" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -937,100 +937,100 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="G4" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="H4" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="I4" t="n">
         <v>3.35</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R4" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T4" t="n">
         <v>1.84</v>
       </c>
       <c r="U4" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W4" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
         <v>13.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
         <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK4" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1039,10 +1039,10 @@
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AO4" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -1072,109 +1072,109 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="G5" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J5" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="K5" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O5" t="n">
         <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="T5" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="U5" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="V5" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="W5" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="X5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Y5" t="n">
-        <v>990</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG5" t="n">
         <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AK5" t="n">
-        <v>17.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="G6" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="I6" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
         <v>1.41</v>
@@ -1231,16 +1231,16 @@
         <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P6" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.96</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.94</v>
       </c>
       <c r="R6" t="n">
         <v>1.37</v>
@@ -1249,46 +1249,46 @@
         <v>3.5</v>
       </c>
       <c r="T6" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U6" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="V6" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="W6" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="X6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z6" t="n">
         <v>14</v>
       </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AA6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC6" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF6" t="n">
         <v>26</v>
       </c>
-      <c r="AF6" t="n">
-        <v>22</v>
-      </c>
       <c r="AG6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH6" t="n">
         <v>18</v>
@@ -1297,22 +1297,22 @@
         <v>38</v>
       </c>
       <c r="AJ6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL6" t="n">
         <v>55</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>48</v>
       </c>
       <c r="AM6" t="n">
         <v>100</v>
       </c>
       <c r="AN6" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AO6" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="7">
@@ -1342,112 +1342,112 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="G7" t="n">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
       <c r="I7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K7" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.2</v>
       </c>
       <c r="P7" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R7" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="S7" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="T7" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="U7" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="V7" t="n">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="W7" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="X7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Z7" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="AA7" t="n">
-        <v>430</v>
+        <v>690</v>
       </c>
       <c r="AB7" t="n">
         <v>9.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AE7" t="n">
-        <v>180</v>
+        <v>280</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AI7" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AK7" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AO7" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G8" t="n">
         <v>1.84</v>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
         <v>3.6</v>
@@ -1501,16 +1501,16 @@
         <v>1.14</v>
       </c>
       <c r="N8" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="O8" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="P8" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="R8" t="n">
         <v>1.17</v>
@@ -1519,10 +1519,10 @@
         <v>6.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="V8" t="n">
         <v>1.17</v>
@@ -1531,10 +1531,10 @@
         <v>2.2</v>
       </c>
       <c r="X8" t="n">
-        <v>990</v>
+        <v>9.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
@@ -1543,10 +1543,10 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AC8" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
         <v>1000</v>
@@ -1555,10 +1555,10 @@
         <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
         <v>1000</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G9" t="n">
         <v>2.3</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
         <v>4.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
         <v>1.38</v>
@@ -1642,25 +1642,25 @@
         <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R9" t="n">
         <v>1.4</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T9" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W9" t="n">
         <v>1.78</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:30:00</t>
+          <t>11:50:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Al-Feiha</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Ula FC</t>
+          <t>Al-Hazm (KSA)</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="G2" t="n">
-        <v>3.9</v>
+        <v>2.46</v>
       </c>
       <c r="H2" t="n">
-        <v>2.34</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>2.44</v>
+        <v>4.4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
         <v>3.2</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="N2" t="n">
-        <v>5.8</v>
+        <v>2.32</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.66</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>1.37</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.94</v>
+        <v>3.45</v>
       </c>
       <c r="R2" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="S2" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="T2" t="n">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>3.55</v>
+        <v>1.56</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="W2" t="n">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.2</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.2</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:50:00</t>
+          <t>12:05:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al-Jndal</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Al-Adalh</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.02</v>
+        <v>2.32</v>
       </c>
       <c r="G3" t="n">
-        <v>2.08</v>
+        <v>2.46</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="I3" t="n">
-        <v>4.3</v>
+        <v>3.85</v>
       </c>
       <c r="J3" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="n">
-        <v>3.55</v>
+        <v>2.84</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="P3" t="n">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.58</v>
       </c>
       <c r="R3" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
-        <v>2.02</v>
+        <v>1.86</v>
       </c>
       <c r="V3" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="W3" t="n">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
         <v>30</v>
       </c>
       <c r="AA3" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AM3" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AN3" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:05:00</t>
+          <t>12:25:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.52</v>
+        <v>1.36</v>
       </c>
       <c r="G4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S4" t="n">
         <v>2.74</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="T4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V4" t="n">
         <v>1.09</v>
       </c>
-      <c r="N4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.42</v>
-      </c>
       <c r="W4" t="n">
-        <v>1.58</v>
+        <v>3.6</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>9.6</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.2</v>
+        <v>13.5</v>
       </c>
       <c r="AD4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK4" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>40</v>
-      </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>36</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>48</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.34</v>
+        <v>3.35</v>
       </c>
       <c r="G5" t="n">
-        <v>1.35</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>10.5</v>
+        <v>2.28</v>
       </c>
       <c r="I5" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N5" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X5" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB5" t="n">
         <v>13</v>
       </c>
-      <c r="J5" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="X5" t="n">
-        <v>22</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="AC5" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK5" t="n">
         <v>40</v>
       </c>
-      <c r="Z5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL5" t="n">
+        <v>970</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN5" t="n">
         <v>38</v>
       </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>5.7</v>
-      </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.4</v>
+        <v>1.28</v>
       </c>
       <c r="G6" t="n">
-        <v>3.6</v>
+        <v>1.29</v>
       </c>
       <c r="H6" t="n">
-        <v>2.18</v>
+        <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>2.28</v>
+        <v>15</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>6.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>6.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="M6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.07</v>
       </c>
-      <c r="N6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.78</v>
-      </c>
       <c r="W6" t="n">
-        <v>1.38</v>
+        <v>4.4</v>
       </c>
       <c r="X6" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.5</v>
+        <v>50</v>
       </c>
       <c r="Z6" t="n">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>670</v>
       </c>
       <c r="AB6" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.199999999999999</v>
+        <v>15</v>
       </c>
       <c r="AD6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>230</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG6" t="n">
         <v>11</v>
       </c>
-      <c r="AE6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>15</v>
-      </c>
       <c r="AH6" t="n">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="AJ6" t="n">
-        <v>70</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK6" t="n">
-        <v>44</v>
+        <v>13.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>44</v>
+        <v>4.3</v>
       </c>
       <c r="AO6" t="n">
-        <v>18.5</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,123 +1328,123 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.28</v>
+        <v>1.66</v>
       </c>
       <c r="G7" t="n">
-        <v>1.29</v>
+        <v>1.72</v>
       </c>
       <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AG7" t="n">
         <v>13.5</v>
       </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W7" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="X7" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>690</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>280</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.6</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.8</v>
+        <v>23</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,75 +1463,75 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="G8" t="n">
-        <v>1.84</v>
+        <v>2.34</v>
       </c>
       <c r="H8" t="n">
-        <v>5.7</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
         <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.64</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S8" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.4</v>
-      </c>
       <c r="U8" t="n">
-        <v>1.61</v>
+        <v>2.14</v>
       </c>
       <c r="V8" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="W8" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="X8" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
         <v>1000</v>
@@ -1543,7 +1543,7 @@
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
         <v>1000</v>
@@ -1582,141 +1582,6 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Platense FC</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO9" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO8"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,78 +653,78 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:50:00</t>
+          <t>12:25:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Feiha</t>
+          <t>Al-Wahda (KSA)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Hazm (KSA)</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.3</v>
+        <v>1.13</v>
       </c>
       <c r="G2" t="n">
-        <v>2.46</v>
+        <v>1.15</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>4.4</v>
+        <v>140</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>3.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="S2" t="n">
         <v>2.02</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S2" t="n">
-        <v>6.8</v>
-      </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="W2" t="n">
-        <v>1.63</v>
+        <v>7.6</v>
       </c>
       <c r="X2" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,43 +733,43 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>990</v>
+        <v>1.94</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:05:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Jndal</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Adalh</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.32</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
-        <v>2.46</v>
+        <v>3.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.55</v>
+        <v>2.12</v>
       </c>
       <c r="I3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.85</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L3" t="n">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>2.84</v>
+        <v>4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.51</v>
+        <v>1.31</v>
       </c>
       <c r="P3" t="n">
-        <v>1.58</v>
+        <v>2.02</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.58</v>
+        <v>1.96</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="S3" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="U3" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.86</v>
       </c>
-      <c r="V3" t="n">
-        <v>1.35</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="X3" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD3" t="n">
         <v>11</v>
       </c>
-      <c r="Y3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>19</v>
-      </c>
       <c r="AE3" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>14.5</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AN3" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AO3" t="n">
-        <v>80</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="G4" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="H4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="X4" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>55</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>580</v>
+      </c>
+      <c r="AB4" t="n">
         <v>10</v>
       </c>
-      <c r="I4" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AC4" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG4" t="n">
         <v>10.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ4" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AK4" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO4" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.35</v>
+        <v>1.67</v>
       </c>
       <c r="G5" t="n">
-        <v>3.45</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>2.28</v>
+        <v>6.8</v>
       </c>
       <c r="I5" t="n">
-        <v>2.34</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K5" t="n">
         <v>3.75</v>
       </c>
       <c r="L5" t="n">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.14</v>
       </c>
       <c r="N5" t="n">
-        <v>3.95</v>
+        <v>2.42</v>
       </c>
       <c r="O5" t="n">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="P5" t="n">
-        <v>1.97</v>
+        <v>1.46</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.98</v>
+        <v>2.92</v>
       </c>
       <c r="R5" t="n">
-        <v>1.38</v>
+        <v>1.15</v>
       </c>
       <c r="S5" t="n">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>2.64</v>
       </c>
       <c r="U5" t="n">
-        <v>2.2</v>
+        <v>1.51</v>
       </c>
       <c r="V5" t="n">
-        <v>1.74</v>
+        <v>1.14</v>
       </c>
       <c r="W5" t="n">
-        <v>1.41</v>
+        <v>2.36</v>
       </c>
       <c r="X5" t="n">
-        <v>15</v>
+        <v>8.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>13</v>
+        <v>5.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>24</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>42</v>
       </c>
       <c r="AI5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,395 +1193,125 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.28</v>
+        <v>1.99</v>
       </c>
       <c r="G6" t="n">
-        <v>1.29</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>15</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>6.2</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2.72</v>
+        <v>2.08</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.55</v>
+        <v>1.86</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.41</v>
       </c>
       <c r="S6" t="n">
-        <v>2.38</v>
+        <v>2.92</v>
       </c>
       <c r="T6" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="U6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.83</v>
       </c>
-      <c r="V6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W6" t="n">
-        <v>4.4</v>
-      </c>
       <c r="X6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>670</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="AD6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Algerian Ligue 1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15:30:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Belouizdad</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ES Setif</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="X7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Platense FC</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO8" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:25:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Wahda (KSA)</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.13</v>
+        <v>1000</v>
       </c>
       <c r="G2" t="n">
-        <v>1.15</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>50</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>140</v>
+        <v>1.01</v>
       </c>
       <c r="J2" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="K2" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,40 +691,40 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R2" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>2.02</v>
+        <v>200</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
+        <v>22</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.01</v>
       </c>
-      <c r="W2" t="n">
-        <v>7.6</v>
-      </c>
       <c r="X2" t="n">
         <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>1.09</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -748,28 +748,28 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.94</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -793,127 +793,127 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al Najma Club</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>1.05</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>1.06</v>
       </c>
       <c r="H3" t="n">
-        <v>2.12</v>
+        <v>1000</v>
       </c>
       <c r="I3" t="n">
-        <v>2.18</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>18.5</v>
       </c>
       <c r="K3" t="n">
-        <v>3.85</v>
+        <v>22</v>
       </c>
       <c r="L3" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.02</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.38</v>
+        <v>1.07</v>
       </c>
       <c r="S3" t="n">
-        <v>3.5</v>
+        <v>1.09</v>
       </c>
       <c r="T3" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.86</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.37</v>
+        <v>18</v>
       </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>1.3</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>44</v>
+        <v>970</v>
       </c>
       <c r="AL3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Belouizdad</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Najma Club</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.28</v>
+        <v>1.94</v>
       </c>
       <c r="G4" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>13.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>9.4</v>
       </c>
       <c r="J4" t="n">
-        <v>6.6</v>
+        <v>2.56</v>
       </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.36</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>1.59</v>
       </c>
       <c r="O4" t="n">
-        <v>1.19</v>
+        <v>2.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.66</v>
+        <v>1.14</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.58</v>
+        <v>7.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="S4" t="n">
-        <v>2.46</v>
+        <v>23</v>
       </c>
       <c r="T4" t="n">
-        <v>2.02</v>
+        <v>5.1</v>
       </c>
       <c r="U4" t="n">
-        <v>1.9</v>
+        <v>1.21</v>
       </c>
       <c r="V4" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="W4" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>32</v>
+        <v>3.85</v>
       </c>
       <c r="Y4" t="n">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AA4" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>10</v>
+        <v>3.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="AD4" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AE4" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
         <v>8.6</v>
       </c>
       <c r="AG4" t="n">
-        <v>10.5</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>340</v>
       </c>
       <c r="AI4" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.800000000000001</v>
+        <v>38</v>
       </c>
       <c r="AK4" t="n">
-        <v>13.5</v>
+        <v>120</v>
       </c>
       <c r="AL4" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>170</v>
+        <v>440</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.4</v>
+        <v>120</v>
       </c>
       <c r="AO4" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,75 +1058,75 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Belouizdad</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.67</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="H5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="R5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U5" t="n">
         <v>2.42</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S5" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.51</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="W5" t="n">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="X5" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1138,10 +1138,10 @@
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1150,19 +1150,19 @@
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1174,144 +1174,9 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Platense FC</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>60</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO6" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO5"/>
+  <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,530 +653,125 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>20:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Platense FC</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1000</v>
+        <v>2.04</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>2.18</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="J2" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.09</v>
+        <v>1.27</v>
       </c>
       <c r="P2" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="Q2" t="n">
-        <v>100</v>
+        <v>1.74</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="S2" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.99</v>
+        <v>1.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="V2" t="n">
-        <v>22</v>
+        <v>1.35</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.09</v>
+        <v>17.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Saudi Professional League</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>14:30:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>NEOM Sports Club</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Al Najma Club</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J3" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>22</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W3" t="n">
-        <v>18</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>970</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Algerian Ligue 1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>15:30:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Belouizdad</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ES Setif</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="I4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="S4" t="n">
-        <v>23</v>
-      </c>
-      <c r="T4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>110</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>340</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>440</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Platense FC</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO5" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.04</v>
+        <v>2.42</v>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="J2" t="n">
-        <v>3.85</v>
+        <v>2.84</v>
       </c>
       <c r="K2" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q2" t="n">
         <v>4.1</v>
       </c>
-      <c r="L2" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.74</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.46</v>
+        <v>1.09</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="T2" t="n">
-        <v>1.63</v>
+        <v>2.86</v>
       </c>
       <c r="U2" t="n">
-        <v>2.34</v>
+        <v>1.44</v>
       </c>
       <c r="V2" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="W2" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="X2" t="n">
-        <v>18.5</v>
+        <v>5.9</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>12.5</v>
+        <v>6.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG2" t="n">
         <v>16</v>
       </c>
-      <c r="AE2" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>15</v>
-      </c>
       <c r="AH2" t="n">
-        <v>16.5</v>
+        <v>940</v>
       </c>
       <c r="AI2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>44</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>28</v>
-      </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,141 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-25</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Platense FC</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="S2" t="n">
-        <v>11</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="X2" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>940</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
